--- a/medicine/Maladies infectieuses/ALC-0315/ALC-0315.xlsx
+++ b/medicine/Maladies infectieuses/ALC-0315/ALC-0315.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'ALC-0315 ou [(4-hydroxybutyl)azanediyl]di(hexane-6,1-diyl) bis(2-hexyldecanoate), est un lipide synthétique. C'est une matière huileuse et incolore.
-L'ALC-0315 est l'un des quatre composants des nanoparticules lipidiques du vaccin contre la Covid-19 BNT162b2 mis au point par BioNTech en collaboration avec Pfizer. Ces nanoparticules contiennent et protègent l'ARNm, le composant utile permettant aux cellules de produire la protéine Spike[2],[3].
+L'ALC-0315 est l'un des quatre composants des nanoparticules lipidiques du vaccin contre la Covid-19 BNT162b2 mis au point par BioNTech en collaboration avec Pfizer. Ces nanoparticules contiennent et protègent l'ARNm, le composant utile permettant aux cellules de produire la protéine Spike,.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Invention</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le processus de fabrication de l'ALC-0315 apparaît pour la première fois le 26 octobre 2017 dans une demande de brevet par Acuitas Therapeutics concernant « des formulations améliorées de nanoparticules lipidiques », avec également « l'utilisation des nanoparticules lipidiques pour l'administration d'un agent thérapeutique »[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le processus de fabrication de l'ALC-0315 apparaît pour la première fois le 26 octobre 2017 dans une demande de brevet par Acuitas Therapeutics concernant « des formulations améliorées de nanoparticules lipidiques », avec également « l'utilisation des nanoparticules lipidiques pour l'administration d'un agent thérapeutique ».
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le laboratoire Pfizer sous-traite la production de l'ALC-0315 auprès de l'entreprise Echelon Biosciences. Une indication sur la fiche de ce produit sur le site de l'entreprise indiquant « destiné uniquement à la recherche » («for research use only»)[5] a été utilisée comme argument par les anti-vaccins contre l'usage du vaccin de Pfizer. En réalité, cette indication désigne simplement son statut, qui n'est pas celui d'un médicament à part entière puisqu'il n'en est qu'un composant. C’est le médicament — avec tous ses constituants — qui est validé après essais cliniques[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le laboratoire Pfizer sous-traite la production de l'ALC-0315 auprès de l'entreprise Echelon Biosciences. Une indication sur la fiche de ce produit sur le site de l'entreprise indiquant « destiné uniquement à la recherche » («for research use only») a été utilisée comme argument par les anti-vaccins contre l'usage du vaccin de Pfizer. En réalité, cette indication désigne simplement son statut, qui n'est pas celui d'un médicament à part entière puisqu'il n'en est qu'un composant. C’est le médicament — avec tous ses constituants — qui est validé après essais cliniques.
 </t>
         </is>
       </c>
